--- a/Timesheets/kjohnson/kjohnson8.xlsx
+++ b/Timesheets/kjohnson/kjohnson8.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Senior Project - Spring / Summer 2015</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>Hash code to random</t>
+  </si>
+  <si>
+    <t>06/29/2015 Sun</t>
+  </si>
+  <si>
+    <t>5:00pm –7:15pm</t>
+  </si>
+  <si>
+    <t>Worked on the User Manual</t>
   </si>
 </sst>
 </file>
@@ -309,10 +318,18 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="6"/>
